--- a/similarities/split_global/harmonic_similarity_timestamps_82.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_82.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:00.580000', '0:00:08.960000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D/7', 'A/3', 'B:min']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.062412', '0:00:12.567886')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:24.220000', '0:00:30.480000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=24.22']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_208</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C', 'G', 'D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:02:49.152131', '0:02:57.917664')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.168000', '0:00:18.573000')]</t>
+          <t>('0:00:58.620000', '0:01:05.560000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-208#t=169.152131</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:maj', 'G/3', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:00.780000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:02:37.019000', '0:02:40.636000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:min', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:00:17.860000', '0:00:28.300000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:00:41.300000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=17.86</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:38.438956', '0:00:41.945170')]</t>
+          <t>('0:00:04.103323', '0:00:13.890534')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:19.060000', '0:00:30.080000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:23.740000', '0:00:51.720000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.740000', '0:00:19.740000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=23.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=11.74']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>['E', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:35.220000', '0:00:42.420000')]</t>
+          <t>('0:00:16.192174', '0:00:27.488682')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:48.280000', '0:02:00.520000')]</t>
+          <t>('0:00:21.680000', '0:00:32.360000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=16.192174</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=108.28']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C', 'F/5', 'C', 'C/7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A/3', 'D', 'A', 'A/2']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+          <t>('0:00:05.121000', '0:00:13.333000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+          <t>('0:01:05.810340', '0:01:12.097891')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=31.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B:7', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:33', '0:00:48.220000')]</t>
+          <t>('0:00:52.020000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+          <t>('0:00:13.384180', '0:00:22.457415')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+          <t>('0:00:51.960000', '0:00:58.620000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+          <t>('0:00:02.900000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=100.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=51.96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=30.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5', 'D']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:41.849092', '0:01:48.664149')]</t>
+          <t>('0:00:38.841000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:21.391000', '0:00:26.250000')]</t>
+          <t>('0:00:47.020000', '0:01:01.580000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=101.849092']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['Eb', 'Ab:maj6', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G#:maj/D#', 'D#:7', 'G#:maj'], ['G:min', 'D:7', 'G:min']]</t>
+          <t>['G', 'A:min7', 'G/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:24.960000', '0:01:31.380000'), ('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:00:08.900000', '0:00:25.130000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:52.780000', '0:02:00.720000'), ('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:00.077870', '0:00:01.981768')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=84.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=8.9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=112.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=0.07787</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:03:49.440000', '0:03:58.320000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:34.041000', '0:00:38.588000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=229.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:47.280000')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
